--- a/Tables/Near_Hall_Table.xlsx
+++ b/Tables/Near_Hall_Table.xlsx
@@ -30,9 +30,6 @@
     <t>Water in Window</t>
   </si>
   <si>
-    <t>Water in BR</t>
-  </si>
-  <si>
     <t>Front Door</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>2nd Water Application</t>
   </si>
 </sst>
 </file>
@@ -958,7 +958,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,45 +989,45 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1">
         <v>1E-3</v>
@@ -1074,16 +1074,16 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1">
         <v>1E-3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1">
         <v>3.5999999999999997E-2</v>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
         <v>1E-3</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1">
         <v>1E-3</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1">
         <v>3.0000000000000001E-3</v>
@@ -1309,7 +1309,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>1E-3</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
         <v>3.0000000000000001E-3</v>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1">
         <v>2E-3</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1">
         <v>3.0000000000000001E-3</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1">
         <v>1E-3</v>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1">
         <v>3.0000000000000001E-3</v>
